--- a/biology/Médecine/Alexis_Corre/Alexis_Corre.xlsx
+++ b/biology/Médecine/Alexis_Corre/Alexis_Corre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Alexis Corre, né le 15 décembre 1915 à Plougastel-Daoulas et mort le 2 mars 2001 à Brest[1],  est un dermatologue brestois réputé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Alexis Corre, né le 15 décembre 1915 à Plougastel-Daoulas et mort le 2 mars 2001 à Brest,  est un dermatologue brestois réputé.
 Il a participé à la défense passive pendant la Seconde Guerre mondiale.
-Médecin des sapeurs-pompiers, interne de l'hospice civil, il s'est dévoué à soulager les souffrances des victimes civiles pendant le siège de Brest[2], mettant sa science et sa constante disponibilité au service du plus grand nombre. Il a aussi fait partie du groupe de médecins, secouristes et administrateurs chargé de l'horrible travail d'identification des cadavres des victimes françaises de l'Explosion de l'abri Sadi-Carnot. « Nous sentions le cadavre trois mois après », se souvenait-il[3].
+Médecin des sapeurs-pompiers, interne de l'hospice civil, il s'est dévoué à soulager les souffrances des victimes civiles pendant le siège de Brest, mettant sa science et sa constante disponibilité au service du plus grand nombre. Il a aussi fait partie du groupe de médecins, secouristes et administrateurs chargé de l'horrible travail d'identification des cadavres des victimes françaises de l'Explosion de l'abri Sadi-Carnot. « Nous sentions le cadavre trois mois après », se souvenait-il.
 Lors de la célébration du 40e anniversaire de la libération de Brest, le 9 septembre 1984, il a inauguré la plaque apposée à l'emplacement de l'hospice civil et de la maternité qui furent totalement détruits lors du bombardement de la ville le 15 avril 1941.
-Le jeudi 9 septembre 2004, pour le 60e anniversaire de la libération de la ville et en hommage à la Défense passive, a eu lieu l'inauguration de la rue Docteur Alexis Corre à Brest[4].
+Le jeudi 9 septembre 2004, pour le 60e anniversaire de la libération de la ville et en hommage à la Défense passive, a eu lieu l'inauguration de la rue Docteur Alexis Corre à Brest.
 </t>
         </is>
       </c>
